--- a/output2.xlsx
+++ b/output2.xlsx
@@ -731,16 +731,16 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>0.2409248349311895</v>
+        <v>0.2440993704973965</v>
       </c>
       <c r="C18">
-        <v>0.001661828927967738</v>
+        <v>0.001923777268948166</v>
       </c>
       <c r="D18">
-        <v>0.01208041991964114</v>
+        <v>0.0114370341813697</v>
       </c>
       <c r="E18">
-        <v>0.01208041991964114</v>
+        <v>0.0114370341813697</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -833,16 +833,16 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>0.3025356317823912</v>
+        <v>0.3001603601755755</v>
       </c>
       <c r="C24">
-        <v>0.01659180859261344</v>
+        <v>0.01667091119916157</v>
       </c>
       <c r="D24">
-        <v>0.0004698104050802837</v>
+        <v>0.0004722792194940947</v>
       </c>
       <c r="E24">
-        <v>0.0004698104050802837</v>
+        <v>0.0004722792194940947</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -867,16 +867,16 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>0.06613115703534861</v>
+        <v>0.0668410796924509</v>
       </c>
       <c r="C26">
-        <v>0.06000343353583881</v>
+        <v>0.05924318245069285</v>
       </c>
       <c r="D26">
-        <v>0.1357279390341226</v>
+        <v>0.1347061525840544</v>
       </c>
       <c r="E26">
-        <v>0.1357279390341226</v>
+        <v>0.1347061525840544</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -901,16 +901,16 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.2467136036847694</v>
+        <v>0.2440993704973966</v>
       </c>
       <c r="C28">
-        <v>0.009032596630741799</v>
+        <v>0.009591578020023108</v>
       </c>
       <c r="D28">
-        <v>0.006637069392853124</v>
+        <v>0.00718618994973888</v>
       </c>
       <c r="E28">
-        <v>0.006637069392853124</v>
+        <v>0.00718618994973888</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -969,16 +969,16 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>0.2409248349311895</v>
+        <v>0.2440993704973965</v>
       </c>
       <c r="C32">
-        <v>0.002242674704694981</v>
+        <v>0.002507343136334567</v>
       </c>
       <c r="D32">
-        <v>0.01085901949860519</v>
+        <v>0.01020884757902258</v>
       </c>
       <c r="E32">
-        <v>0.01085901949860519</v>
+        <v>0.01020884757902258</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>0.4336051195266981</v>
+        <v>0.4318754981734428</v>
       </c>
       <c r="C34">
-        <v>0.06187552738507664</v>
+        <v>0.0616381625322482</v>
       </c>
       <c r="D34">
-        <v>0.01403399482536945</v>
+        <v>0.0135498834211449</v>
       </c>
       <c r="E34">
-        <v>0.01403399482536945</v>
+        <v>0.0135498834211449</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>max</t>
   </si>
@@ -58,10 +58,13 @@
     <t>j11</t>
   </si>
   <si>
+    <t>m01</t>
+  </si>
+  <si>
+    <t>m03</t>
+  </si>
+  <si>
     <t>m05</t>
-  </si>
-  <si>
-    <t>m06</t>
   </si>
   <si>
     <t>m08</t>
@@ -434,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,16 +802,16 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>0.3347460435524344</v>
+        <v>0.4705000648277881</v>
       </c>
       <c r="C22">
-        <v>0.06477153092769591</v>
+        <v>0.1967431271357228</v>
       </c>
       <c r="D22">
-        <v>0.1017217094482688</v>
+        <v>0.1039474503252139</v>
       </c>
       <c r="E22">
-        <v>0.1017217094482688</v>
+        <v>0.1039474503252139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -816,16 +819,16 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>0.02489500557704039</v>
+        <v>0.4228104552401625</v>
       </c>
       <c r="C23">
-        <v>0.1248202640777628</v>
+        <v>0.07500810950496664</v>
       </c>
       <c r="D23">
-        <v>0.2133105629662845</v>
+        <v>0.01613240823713685</v>
       </c>
       <c r="E23">
-        <v>0.2133105629662845</v>
+        <v>0.01613240823713685</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -833,16 +836,16 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>0.3001603601755755</v>
+        <v>0.4705000648277881</v>
       </c>
       <c r="C24">
-        <v>0.01667091119916157</v>
+        <v>0.1967431271357228</v>
       </c>
       <c r="D24">
-        <v>0.0004722792194940947</v>
+        <v>0.1039474503252139</v>
       </c>
       <c r="E24">
-        <v>0.0004722792194940947</v>
+        <v>0.1039474503252139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -850,16 +853,16 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>0.2382869608993972</v>
+        <v>0.4228104552401625</v>
       </c>
       <c r="C25">
-        <v>0.01183474026044632</v>
+        <v>0.07500810950496664</v>
       </c>
       <c r="D25">
-        <v>0.00881785066671217</v>
+        <v>0.01613240823713685</v>
       </c>
       <c r="E25">
-        <v>0.00881785066671217</v>
+        <v>0.01613240823713685</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -867,16 +870,16 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>0.0668410796924509</v>
+        <v>0.3347460435524344</v>
       </c>
       <c r="C26">
-        <v>0.05924318245069285</v>
+        <v>0.06477153092769591</v>
       </c>
       <c r="D26">
-        <v>0.1347061525840544</v>
+        <v>0.1017217094482688</v>
       </c>
       <c r="E26">
-        <v>0.1347061525840544</v>
+        <v>0.1017217094482688</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -884,16 +887,16 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>0.01764922746459481</v>
+        <v>0.02489500557704039</v>
       </c>
       <c r="C27">
-        <v>0.1433383930562617</v>
+        <v>0.1248202640777628</v>
       </c>
       <c r="D27">
-        <v>0.2394430901648671</v>
+        <v>0.2133105629662845</v>
       </c>
       <c r="E27">
-        <v>0.2394430901648671</v>
+        <v>0.2133105629662845</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -901,16 +904,16 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.2440993704973966</v>
+        <v>0.0668410796924509</v>
       </c>
       <c r="C28">
-        <v>0.009591578020023108</v>
+        <v>0.05924318245069285</v>
       </c>
       <c r="D28">
-        <v>0.00718618994973888</v>
+        <v>0.1347061525840544</v>
       </c>
       <c r="E28">
-        <v>0.00718618994973888</v>
+        <v>0.1347061525840544</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -918,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="B29">
-        <v>0.2559563877922733</v>
+        <v>0.01764922746459481</v>
       </c>
       <c r="C29">
-        <v>0.005581381465472008</v>
+        <v>0.1433383930562617</v>
       </c>
       <c r="D29">
-        <v>0.006123069552447773</v>
+        <v>0.2394430901648671</v>
       </c>
       <c r="E29">
-        <v>0.006123069552447773</v>
+        <v>0.2394430901648671</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -935,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="B30">
-        <v>0.003478298769743019</v>
+        <v>0.2440993704973966</v>
       </c>
       <c r="C30">
-        <v>0.1951902092661718</v>
+        <v>0.009591578020023108</v>
       </c>
       <c r="D30">
-        <v>0.2970947306725408</v>
+        <v>0.00718618994973888</v>
       </c>
       <c r="E30">
-        <v>0.2970947306725408</v>
+        <v>0.00718618994973888</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -952,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.2559563877922733</v>
       </c>
       <c r="C31">
-        <v>0.2157615543388358</v>
+        <v>0.005581381465472008</v>
       </c>
       <c r="D31">
-        <v>0.3182570841474064</v>
+        <v>0.006123069552447773</v>
       </c>
       <c r="E31">
-        <v>0.3182570841474064</v>
+        <v>0.006123069552447773</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -969,16 +972,16 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>0.2440993704973965</v>
+        <v>0.003478298769743019</v>
       </c>
       <c r="C32">
-        <v>0.002507343136334567</v>
+        <v>0.1951902092661718</v>
       </c>
       <c r="D32">
-        <v>0.01020884757902258</v>
+        <v>0.2970947306725408</v>
       </c>
       <c r="E32">
-        <v>0.01020884757902258</v>
+        <v>0.2970947306725408</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -986,16 +989,16 @@
         <v>19</v>
       </c>
       <c r="B33">
-        <v>0.2212882486617274</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.01001226516508861</v>
+        <v>0.2157615543388358</v>
       </c>
       <c r="D33">
-        <v>0.01297894111392258</v>
+        <v>0.3182570841474064</v>
       </c>
       <c r="E33">
-        <v>0.01297894111392258</v>
+        <v>0.3182570841474064</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1003,16 +1006,16 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>0.4318754981734428</v>
+        <v>0.2440993704973965</v>
       </c>
       <c r="C34">
-        <v>0.0616381625322482</v>
+        <v>0.002507343136334567</v>
       </c>
       <c r="D34">
-        <v>0.0135498834211449</v>
+        <v>0.01020884757902258</v>
       </c>
       <c r="E34">
-        <v>0.0135498834211449</v>
+        <v>0.01020884757902258</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1020,15 +1023,49 @@
         <v>20</v>
       </c>
       <c r="B35">
+        <v>0.2212882486617274</v>
+      </c>
+      <c r="C35">
+        <v>0.01001226516508861</v>
+      </c>
+      <c r="D35">
+        <v>0.01297894111392258</v>
+      </c>
+      <c r="E35">
+        <v>0.01297894111392258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>0.4318754981734428</v>
+      </c>
+      <c r="C36">
+        <v>0.0616381625322482</v>
+      </c>
+      <c r="D36">
+        <v>0.0135498834211449</v>
+      </c>
+      <c r="E36">
+        <v>0.0135498834211449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
         <v>0.3420144880071857</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>0.02679325301323007</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>0.0009210866283259119</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>0.0009210866283259119</v>
       </c>
     </row>
